--- a/biology/Médecine/Ulysse_Trélat_(1828-1890)/Ulysse_Trélat_(1828-1890).xlsx
+++ b/biology/Médecine/Ulysse_Trélat_(1828-1890)/Ulysse_Trélat_(1828-1890).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulysse Trélat, né le 13 août 1828 à Paris où il meurt le 28 mars 1890, est un professeur de médecine, chirurgien des hôpitaux de Paris, et président de l'Académie de médecine en 1886.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Il est le fils d'Ulysse Trélat (1795-1879) et de Marie Jeanne Louise Potin. En 1857, il épouse Anne Marie Renée Molinos, dont il aura deux enfants[1].
-Études et carrière
-Bachelier en 1844, il est externe des hôpitaux en 1847 et interne de 1849 à 1852. Il est reçu docteur en 1854, et obtient son agrégation de chirurgie en 1857.
-Il donne des cours et des conférences dans différents hôpitaux de Paris où il est nommé chirurgien en chef : Saint-Antoine, Saint-Louis, La Pitié, La Charité, Necker.
-De 1865 à 1869, il donne aussi des cours à l'Association philotechnique, et à l'École centrale d'Architecture (cours d'hygiène appliquée à l'architecture).
-En 1870-1871, il est chirurgien en chef de la 5e ambulance de la Société de secours aux blessés militaires (future composante de la Croix-Rouge française).
-En 1872, il est titulaire de la deuxième chaire de pathologie externe, en remplacement d'Aristide Verneuil ; en 1880 de la deuxième chaire de clinique chirurgicale, en remplacement de Paul Broca ; en 1884 de la troisième chaire de clinique chirurgicale, en remplacement de Léon Gosselin[1].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d'Ulysse Trélat (1795-1879) et de Marie Jeanne Louise Potin. En 1857, il épouse Anne Marie Renée Molinos, dont il aura deux enfants.
 </t>
         </is>
       </c>
@@ -531,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +557,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sa thèse de doctorat porte sur Des fractures de l'extrémité inférieure du fémur (1854) et sa thèse d'agrégation sur De la nécrose causée par le phosphore (1857).
-Il est l'auteur de Clinique chirurgicale, Baillière, 1895, en deux volumes ; de nombreux articles parus dans les Archives générales de médecine, la Gazette hebdomadaire de médecine et de chirurgie, le Progrès médical, et un collaborateur du Dictionnaire encyclopédique des sciences médicales[1].
+          <t>Études et carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachelier en 1844, il est externe des hôpitaux en 1847 et interne de 1849 à 1852. Il est reçu docteur en 1854, et obtient son agrégation de chirurgie en 1857.
+Il donne des cours et des conférences dans différents hôpitaux de Paris où il est nommé chirurgien en chef : Saint-Antoine, Saint-Louis, La Pitié, La Charité, Necker.
+De 1865 à 1869, il donne aussi des cours à l'Association philotechnique, et à l'École centrale d'Architecture (cours d'hygiène appliquée à l'architecture).
+En 1870-1871, il est chirurgien en chef de la 5e ambulance de la Société de secours aux blessés militaires (future composante de la Croix-Rouge française).
+En 1872, il est titulaire de la deuxième chaire de pathologie externe, en remplacement d'Aristide Verneuil ; en 1880 de la deuxième chaire de clinique chirurgicale, en remplacement de Paul Broca ; en 1884 de la troisième chaire de clinique chirurgicale, en remplacement de Léon Gosselin.
 </t>
         </is>
       </c>
@@ -563,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,15 +598,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre de l'Académie de médecine (1874), président en 1886.
-Commandeur de la Légion d'honneur (1889).
-Il est membre de la Société anatomique (vice-président en 1857), de la Société anthropologique (secrétaire en 1861), de la Société de chirurgie (vice-président en 1872).
-Il est aussi membre du Comité consultatif de l'enseignement public, médecin-chirurgien du Conseil d'État, et chirurgien consultant des Maisons d'éducation de la Légion d'honneur[1].
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa thèse de doctorat porte sur Des fractures de l'extrémité inférieure du fémur (1854) et sa thèse d'agrégation sur De la nécrose causée par le phosphore (1857).
+Il est l'auteur de Clinique chirurgicale, Baillière, 1895, en deux volumes ; de nombreux articles parus dans les Archives générales de médecine, la Gazette hebdomadaire de médecine et de chirurgie, le Progrès médical, et un collaborateur du Dictionnaire encyclopédique des sciences médicales.
 </t>
         </is>
       </c>
@@ -597,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +632,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Art</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le portrait d'Ulysse Trélat sur plaque en bronze, réalisé par le sculpteur Jules Chaplain en 1893, est conservé au musée d'Orsay[2].</t>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de l'Académie de médecine (1874), président en 1886.
+Commandeur de la Légion d'honneur (1889).
+Il est membre de la Société anatomique (vice-président en 1857), de la Société anthropologique (secrétaire en 1861), de la Société de chirurgie (vice-président en 1872).
+Il est aussi membre du Comité consultatif de l'enseignement public, médecin-chirurgien du Conseil d'État, et chirurgien consultant des Maisons d'éducation de la Légion d'honneur.
+</t>
         </is>
       </c>
     </row>
@@ -627,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+          <t>Ulysse_Trélat_(1828-1890)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,12 +668,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le portrait d'Ulysse Trélat sur plaque en bronze, réalisé par le sculpteur Jules Chaplain en 1893, est conservé au musée d'Orsay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ulysse_Trélat_(1828-1890)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ulysse_Tr%C3%A9lat_(1828-1890)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Leser-Trélat porte son nom[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Leser-Trélat porte son nom.
 </t>
         </is>
       </c>
